--- a/tests/data/test_data_28.xlsx
+++ b/tests/data/test_data_28.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wizz/Documents/Projects/excelcy/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B023D7-4A79-404C-B105-77E98586259A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D217508-1CF6-1746-B2ED-D55AA644FC4D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11960" yWindow="560" windowWidth="28800" windowHeight="16640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="train" sheetId="3" r:id="rId1"/>
-    <sheet name="config" sheetId="2" r:id="rId2"/>
+    <sheet name="source" sheetId="3" r:id="rId1"/>
+    <sheet name="prepare" sheetId="4" r:id="rId2"/>
+    <sheet name="config" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>name</t>
   </si>
@@ -32,45 +33,18 @@
     <t>kind</t>
   </si>
   <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>base</t>
-  </si>
-  <si>
     <t>en_core_web_sm</t>
   </si>
   <si>
-    <t>train.iteration</t>
-  </si>
-  <si>
-    <t>train.drop</t>
-  </si>
-  <si>
-    <t>train.matcher</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
-    <t>subtext</t>
-  </si>
-  <si>
     <t>entity</t>
   </si>
   <si>
-    <t>Robertus Johansyah is the maintainer of project excelCy in Github</t>
-  </si>
-  <si>
     <t>Robertus Johansyah</t>
   </si>
   <si>
-    <t>excelCy</t>
-  </si>
-  <si>
     <t>PERSON</t>
   </si>
   <si>
@@ -84,6 +58,42 @@
   </si>
   <si>
     <t>[tmp]/nlp/test_data_28</t>
+  </si>
+  <si>
+    <t>idx</t>
+  </si>
+  <si>
+    <t>phrase</t>
+  </si>
+  <si>
+    <t>ExcelCy</t>
+  </si>
+  <si>
+    <t>Robertus Johansyah is the maintainer of project ExcelCy in Github</t>
+  </si>
+  <si>
+    <t>nlp_base</t>
+  </si>
+  <si>
+    <t>nlp_name</t>
+  </si>
+  <si>
+    <t>source_language</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>prepare_enabled</t>
+  </si>
+  <si>
+    <t>train_iteration</t>
+  </si>
+  <si>
+    <t>train_drop</t>
+  </si>
+  <si>
+    <t>train_autosave</t>
   </si>
 </sst>
 </file>
@@ -426,71 +436,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D581B7A-DDFF-5C48-A6CD-60228BBE6862}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
-    <col min="2" max="2" width="53.1640625" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" customWidth="1"/>
+    <col min="3" max="3" width="52.83203125" customWidth="1"/>
     <col min="4" max="4" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1.2</v>
-      </c>
-      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1.3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -499,10 +476,85 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57B1A69-F0A2-964B-AF1E-DEB9524F87B5}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -520,7 +572,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -528,41 +580,49 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
-        <v>0.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="b">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="b">
         <v>1</v>
       </c>
     </row>

--- a/tests/data/test_data_28.xlsx
+++ b/tests/data/test_data_28.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wizz/Documents/Projects/excelcy/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D217508-1CF6-1746-B2ED-D55AA644FC4D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DCF6E4-B6A6-5C4D-87F2-77F1A594C659}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11960" yWindow="560" windowWidth="28800" windowHeight="16640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="source" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>name</t>
   </si>
@@ -57,9 +57,6 @@
     <t>GITHUB_PROJECT</t>
   </si>
   <si>
-    <t>[tmp]/nlp/test_data_28</t>
-  </si>
-  <si>
     <t>idx</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
   </si>
   <si>
     <t>nlp_base</t>
-  </si>
-  <si>
-    <t>nlp_name</t>
   </si>
   <si>
     <t>source_language</t>
@@ -450,13 +444,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -467,7 +461,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -479,9 +473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57B1A69-F0A2-964B-AF1E-DEB9524F87B5}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -491,7 +483,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -508,7 +500,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -522,10 +514,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -536,7 +528,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -552,7 +544,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -572,7 +564,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -580,50 +572,42 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
+      <c r="B4" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="1" t="b">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="1" t="b">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
